--- a/2021_CnC_records.xlsx
+++ b/2021_CnC_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8816684-1FD3-4F80-8679-3D50D675F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CBE6A-94AC-480C-B451-6A0EEDFC8E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="1095">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3319,6 +3319,12 @@
   </si>
   <si>
     <t>4:39.54</t>
+  </si>
+  <si>
+    <t>CW: this was a 10K road race not track 10000m</t>
+  </si>
+  <si>
+    <t>10K</t>
   </si>
 </sst>
 </file>
@@ -9446,8 +9452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D17D48-6A09-4E8D-9C29-A364728CDDFA}">
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10109,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -10117,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>509</v>
       </c>
@@ -10143,7 +10149,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -10166,7 +10172,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -10235,7 +10241,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -10281,7 +10287,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>491</v>
       </c>
@@ -10295,7 +10301,7 @@
         <v>492</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>990</v>
+        <v>1094</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>1037</v>
@@ -10303,8 +10309,11 @@
       <c r="H42" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -10327,7 +10336,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>512</v>
       </c>
@@ -10350,7 +10359,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
@@ -10387,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -10401,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -14195,8 +14204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B8E74-193C-4A62-9827-E7761224CD25}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2021_CnC_records.xlsx
+++ b/2021_CnC_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9DB0A-307F-420B-B042-FFB1A60CE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527D3B3-DF0D-421E-A839-956B69F888A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4486" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1121">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3400,6 +3400,9 @@
   </si>
   <si>
     <t>Corrected to Po10 time exactly</t>
+  </si>
+  <si>
+    <t>Skipping this because PenIM35 age-group specific, also listed there</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +3509,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="5629275"/>
+          <a:off x="0" y="5823585"/>
           <a:ext cx="99060" cy="13335"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="708660" cy="13716"/>
@@ -3609,7 +3612,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="10487025"/>
+          <a:off x="0" y="10852785"/>
           <a:ext cx="99060" cy="13335"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="708660" cy="13716"/>
@@ -3712,7 +3715,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="15344775"/>
+          <a:off x="0" y="15881985"/>
           <a:ext cx="99060" cy="13335"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="708660" cy="13716"/>
@@ -3815,7 +3818,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="19878675"/>
+          <a:off x="0" y="20575905"/>
           <a:ext cx="99060" cy="13335"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="708660" cy="13716"/>
@@ -4194,32 +4197,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31CADB-781F-4F55-B093-B2ED4E03C3FD}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4793,17 +4796,11 @@
       <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
@@ -4872,12 +4869,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4949,7 +4946,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5061,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5084,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
@@ -5133,7 +5130,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
@@ -5156,7 +5153,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
@@ -5179,7 +5176,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>62</v>
       </c>
@@ -5202,7 +5199,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
@@ -5248,7 +5245,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
@@ -5294,7 +5291,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
@@ -5317,7 +5314,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
@@ -5386,7 +5383,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
@@ -5409,7 +5406,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
@@ -5432,7 +5429,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>45</v>
       </c>
@@ -5455,7 +5452,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
@@ -5473,22 +5470,22 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="36.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
@@ -5511,7 +5508,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5583,7 +5580,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5606,7 +5603,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5652,7 +5649,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
@@ -5709,7 +5706,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
@@ -5758,7 +5755,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -5804,7 +5801,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>169</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
@@ -5919,7 +5916,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>172</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
@@ -5968,7 +5965,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
@@ -6017,7 +6014,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>175</v>
       </c>
@@ -6040,7 +6037,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>177</v>
       </c>
@@ -6063,17 +6060,17 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>256</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>180</v>
       </c>
@@ -6148,7 +6145,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -6217,7 +6214,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
@@ -6240,7 +6237,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>183</v>
       </c>
@@ -6263,7 +6260,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>184</v>
       </c>
@@ -6286,7 +6283,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>185</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>64</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
@@ -6372,7 +6369,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
@@ -6395,7 +6392,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>324</v>
       </c>
@@ -6418,7 +6415,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>325</v>
       </c>
@@ -6441,7 +6438,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
@@ -6464,7 +6461,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>189</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
@@ -6533,7 +6530,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>193</v>
       </c>
@@ -6556,7 +6553,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
@@ -6579,17 +6576,17 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>280</v>
       </c>
@@ -6615,7 +6612,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>196</v>
       </c>
@@ -6638,7 +6635,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>197</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>199</v>
       </c>
@@ -6684,7 +6681,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +6704,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -6730,7 +6727,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
@@ -6753,7 +6750,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>201</v>
       </c>
@@ -6776,7 +6773,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
@@ -6799,7 +6796,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
@@ -6822,7 +6819,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
@@ -6845,7 +6842,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>30</v>
       </c>
@@ -6891,7 +6888,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>205</v>
       </c>
@@ -6937,7 +6934,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>207</v>
       </c>
@@ -7006,17 +7003,17 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>301</v>
       </c>
@@ -7042,7 +7039,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
@@ -7065,7 +7062,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>13</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>214</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>62</v>
       </c>
@@ -7203,7 +7200,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>64</v>
       </c>
@@ -7226,7 +7223,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>217</v>
       </c>
@@ -7249,7 +7246,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>219</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>220</v>
       </c>
@@ -7295,7 +7292,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
@@ -7318,7 +7315,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>224</v>
       </c>
@@ -7341,7 +7338,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>224</v>
       </c>
@@ -7364,7 +7361,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>175</v>
       </c>
@@ -7387,12 +7384,12 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>318</v>
       </c>
@@ -7418,7 +7415,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>228</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>64</v>
       </c>
@@ -7464,7 +7461,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>230</v>
       </c>
@@ -7487,7 +7484,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>232</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
@@ -7528,22 +7525,22 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="34.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
@@ -7566,7 +7563,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -7595,7 +7592,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7618,7 +7615,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7641,7 +7638,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7687,7 +7684,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7733,7 +7730,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>334</v>
       </c>
@@ -7779,7 +7776,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -7825,7 +7822,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
@@ -7848,7 +7845,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
@@ -7871,7 +7868,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
@@ -7894,7 +7891,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -7917,7 +7914,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>337</v>
       </c>
@@ -7940,7 +7937,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>339</v>
       </c>
@@ -7963,7 +7960,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>341</v>
       </c>
@@ -7986,7 +7983,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>343</v>
       </c>
@@ -8009,7 +8006,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>344</v>
       </c>
@@ -8032,7 +8029,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>345</v>
       </c>
@@ -8055,7 +8052,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
@@ -8078,7 +8075,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -8101,7 +8098,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
@@ -8124,7 +8121,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>177</v>
       </c>
@@ -8147,17 +8144,17 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>429</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
@@ -8209,7 +8206,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8232,7 +8229,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -8255,7 +8252,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
@@ -8281,7 +8278,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -8304,7 +8301,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
@@ -8327,7 +8324,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>353</v>
       </c>
@@ -8350,7 +8347,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
@@ -8373,7 +8370,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>185</v>
       </c>
@@ -8396,7 +8393,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
@@ -8419,7 +8416,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>66</v>
       </c>
@@ -8465,7 +8462,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
@@ -8488,7 +8485,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
@@ -8511,7 +8508,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
@@ -8534,7 +8531,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>362</v>
       </c>
@@ -8557,7 +8554,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -8580,7 +8577,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
@@ -8603,7 +8600,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>365</v>
       </c>
@@ -8626,7 +8623,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
@@ -8652,17 +8649,17 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>444</v>
       </c>
@@ -8688,7 +8685,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>196</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>197</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>199</v>
       </c>
@@ -8757,7 +8754,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -8803,7 +8800,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
@@ -8826,7 +8823,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>375</v>
       </c>
@@ -8849,7 +8846,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
@@ -8872,7 +8869,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
@@ -8895,7 +8892,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
@@ -8918,7 +8915,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
@@ -8941,7 +8938,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>30</v>
       </c>
@@ -8964,7 +8961,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
@@ -8987,7 +8984,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>205</v>
       </c>
@@ -9010,7 +9007,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
@@ -9033,7 +9030,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
@@ -9056,7 +9053,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>207</v>
       </c>
@@ -9079,17 +9076,17 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>462</v>
       </c>
@@ -9115,7 +9112,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
@@ -9138,7 +9135,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -9187,7 +9184,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
@@ -9210,7 +9207,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9230,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>387</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>62</v>
       </c>
@@ -9279,7 +9276,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>64</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>390</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>32</v>
       </c>
@@ -9348,7 +9345,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>392</v>
       </c>
@@ -9371,7 +9368,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>224</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>175</v>
       </c>
@@ -9417,12 +9414,12 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>475</v>
       </c>
@@ -9448,7 +9445,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>228</v>
       </c>
@@ -9471,7 +9468,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
@@ -9494,7 +9491,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
@@ -9517,7 +9514,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>64</v>
       </c>
@@ -9540,7 +9537,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
@@ -9558,22 +9555,22 @@
       <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="36.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
@@ -9596,7 +9593,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>554</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9645,7 +9642,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9668,7 +9665,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -9714,7 +9711,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9760,7 +9757,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>486</v>
       </c>
@@ -9783,7 +9780,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -9806,7 +9803,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>488</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
@@ -9852,7 +9849,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
@@ -9866,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -9880,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
@@ -9903,7 +9900,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -9926,7 +9923,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
@@ -9949,7 +9946,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>68</v>
       </c>
@@ -9972,7 +9969,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>492</v>
       </c>
@@ -9995,7 +9992,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>493</v>
       </c>
@@ -10018,7 +10015,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>494</v>
       </c>
@@ -10041,7 +10038,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>495</v>
       </c>
@@ -10064,7 +10061,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>496</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>498</v>
       </c>
@@ -10110,7 +10107,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>500</v>
       </c>
@@ -10124,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>501</v>
       </c>
@@ -10147,7 +10144,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
@@ -10161,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>193</v>
       </c>
@@ -10175,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
@@ -10198,7 +10195,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>177</v>
       </c>
@@ -10212,12 +10209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>504</v>
       </c>
@@ -10254,7 +10251,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -10277,7 +10274,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
@@ -10300,7 +10297,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -10323,7 +10320,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -10346,7 +10343,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -10372,7 +10369,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -10395,7 +10392,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>486</v>
       </c>
@@ -10421,7 +10418,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -10447,7 +10444,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>507</v>
       </c>
@@ -10470,7 +10467,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
@@ -10493,7 +10490,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
@@ -10507,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -10544,7 +10541,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
@@ -10590,7 +10587,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
@@ -10613,7 +10610,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>492</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>493</v>
       </c>
@@ -10659,7 +10656,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>509</v>
       </c>
@@ -10682,7 +10679,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>496</v>
       </c>
@@ -10705,7 +10702,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>498</v>
       </c>
@@ -10728,7 +10725,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>500</v>
       </c>
@@ -10745,7 +10742,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>510</v>
       </c>
@@ -10768,7 +10765,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>193</v>
       </c>
@@ -10782,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>40</v>
       </c>
@@ -10796,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>175</v>
       </c>
@@ -10819,7 +10816,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>177</v>
       </c>
@@ -10833,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
@@ -10841,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>512</v>
       </c>
@@ -10867,7 +10864,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -10890,7 +10887,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -10913,7 +10910,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -10939,7 +10936,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -10962,7 +10959,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
@@ -11011,7 +11008,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>486</v>
       </c>
@@ -11034,7 +11031,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>13</v>
       </c>
@@ -11057,7 +11054,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>507</v>
       </c>
@@ -11080,7 +11077,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -11103,7 +11100,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -11126,7 +11123,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
@@ -11140,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>64</v>
       </c>
@@ -11186,7 +11183,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>66</v>
       </c>
@@ -11209,7 +11206,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
@@ -11223,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>492</v>
       </c>
@@ -11246,7 +11243,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>493</v>
       </c>
@@ -11269,7 +11266,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>520</v>
       </c>
@@ -11292,7 +11289,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>496</v>
       </c>
@@ -11315,7 +11312,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>498</v>
       </c>
@@ -11338,7 +11335,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>500</v>
       </c>
@@ -11352,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>510</v>
       </c>
@@ -11366,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>37</v>
       </c>
@@ -11380,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>193</v>
       </c>
@@ -11394,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>175</v>
       </c>
@@ -11417,7 +11414,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>177</v>
       </c>
@@ -11440,7 +11437,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -11448,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>523</v>
       </c>
@@ -11474,7 +11471,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
@@ -11497,7 +11494,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -11520,7 +11517,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
@@ -11566,7 +11563,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
@@ -11589,7 +11586,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>11</v>
       </c>
@@ -11612,7 +11609,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>12</v>
       </c>
@@ -11635,7 +11632,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>13</v>
       </c>
@@ -11658,7 +11655,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>507</v>
       </c>
@@ -11681,7 +11678,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>184</v>
       </c>
@@ -11707,7 +11704,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>59</v>
       </c>
@@ -11733,7 +11730,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>62</v>
       </c>
@@ -11782,7 +11779,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>64</v>
       </c>
@@ -11805,7 +11802,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>66</v>
       </c>
@@ -11828,7 +11825,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>68</v>
       </c>
@@ -11842,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>526</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>493</v>
       </c>
@@ -11888,7 +11885,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>527</v>
       </c>
@@ -11911,7 +11908,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>528</v>
       </c>
@@ -11934,7 +11931,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>498</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>500</v>
       </c>
@@ -11980,7 +11977,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>510</v>
       </c>
@@ -12003,7 +12000,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>175</v>
       </c>
@@ -12026,7 +12023,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>177</v>
       </c>
@@ -12049,7 +12046,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
@@ -12057,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>531</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>3</v>
       </c>
@@ -12106,7 +12103,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
@@ -12129,7 +12126,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
@@ -12155,7 +12152,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>8</v>
       </c>
@@ -12181,7 +12178,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
@@ -12204,7 +12201,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>11</v>
       </c>
@@ -12218,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>13</v>
       </c>
@@ -12244,7 +12241,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>535</v>
       </c>
@@ -12258,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>184</v>
       </c>
@@ -12272,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>59</v>
       </c>
@@ -12295,7 +12292,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>18</v>
       </c>
@@ -12318,7 +12315,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>62</v>
       </c>
@@ -12341,7 +12338,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>64</v>
       </c>
@@ -12364,7 +12361,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>66</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>68</v>
       </c>
@@ -12401,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>526</v>
       </c>
@@ -12424,7 +12421,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>493</v>
       </c>
@@ -12447,7 +12444,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>527</v>
       </c>
@@ -12470,7 +12467,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>528</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>498</v>
       </c>
@@ -12516,7 +12513,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>500</v>
       </c>
@@ -12539,7 +12536,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>510</v>
       </c>
@@ -12556,7 +12553,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>175</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>177</v>
       </c>
@@ -12590,7 +12587,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
@@ -12598,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>541</v>
       </c>
@@ -12624,7 +12621,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>3</v>
       </c>
@@ -12647,7 +12644,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>4</v>
       </c>
@@ -12670,7 +12667,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
@@ -12693,7 +12690,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
@@ -12716,7 +12713,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -12742,7 +12739,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>11</v>
       </c>
@@ -12756,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>13</v>
       </c>
@@ -12779,7 +12776,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>59</v>
       </c>
@@ -12802,7 +12799,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>62</v>
       </c>
@@ -12816,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>64</v>
       </c>
@@ -12839,7 +12836,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>66</v>
       </c>
@@ -12862,7 +12859,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>526</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>493</v>
       </c>
@@ -12908,7 +12905,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>527</v>
       </c>
@@ -12931,7 +12928,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>528</v>
       </c>
@@ -12954,7 +12951,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>498</v>
       </c>
@@ -12977,7 +12974,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>500</v>
       </c>
@@ -13000,7 +12997,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>510</v>
       </c>
@@ -13023,12 +13020,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>668</v>
       </c>
@@ -13054,7 +13051,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>3</v>
       </c>
@@ -13077,7 +13074,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>4</v>
       </c>
@@ -13100,7 +13097,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
@@ -13123,7 +13120,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
@@ -13146,7 +13143,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -13169,7 +13166,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>11</v>
       </c>
@@ -13192,7 +13189,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>62</v>
       </c>
@@ -13206,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>64</v>
       </c>
@@ -13229,7 +13226,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>66</v>
       </c>
@@ -13252,7 +13249,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>526</v>
       </c>
@@ -13275,7 +13272,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>493</v>
       </c>
@@ -13298,7 +13295,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>527</v>
       </c>
@@ -13321,7 +13318,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>528</v>
       </c>
@@ -13344,7 +13341,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
@@ -13352,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>545</v>
       </c>
@@ -13378,7 +13375,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>3</v>
       </c>
@@ -13401,7 +13398,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>4</v>
       </c>
@@ -13424,7 +13421,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>10</v>
       </c>
@@ -13438,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>11</v>
       </c>
@@ -13452,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>13</v>
       </c>
@@ -13466,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>64</v>
       </c>
@@ -13489,7 +13486,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>66</v>
       </c>
@@ -13512,7 +13509,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>68</v>
       </c>
@@ -13526,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>546</v>
       </c>
@@ -13549,7 +13546,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>493</v>
       </c>
@@ -13572,7 +13569,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>527</v>
       </c>
@@ -13595,7 +13592,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>528</v>
       </c>
@@ -13618,12 +13615,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>690</v>
       </c>
@@ -13649,7 +13646,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>3</v>
       </c>
@@ -13672,7 +13669,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
@@ -13695,7 +13692,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>6</v>
       </c>
@@ -13718,7 +13715,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>8</v>
       </c>
@@ -13741,7 +13738,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>10</v>
       </c>
@@ -13764,7 +13761,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>13</v>
       </c>
@@ -13778,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>64</v>
       </c>
@@ -13801,7 +13798,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>547</v>
       </c>
@@ -13815,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>548</v>
       </c>
@@ -13838,7 +13835,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>549</v>
       </c>
@@ -13852,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>493</v>
       </c>
@@ -13875,7 +13872,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>232</v>
       </c>
@@ -13898,7 +13895,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>550</v>
       </c>
@@ -13912,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>551</v>
       </c>
@@ -13935,7 +13932,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>552</v>
       </c>
@@ -13958,7 +13955,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>703</v>
       </c>
@@ -13984,7 +13981,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>3</v>
       </c>
@@ -14007,7 +14004,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>4</v>
       </c>
@@ -14030,7 +14027,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>6</v>
       </c>
@@ -14053,7 +14050,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>8</v>
       </c>
@@ -14076,7 +14073,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>10</v>
       </c>
@@ -14099,7 +14096,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>13</v>
       </c>
@@ -14122,7 +14119,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>64</v>
       </c>
@@ -14145,7 +14142,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>547</v>
       </c>
@@ -14159,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>548</v>
       </c>
@@ -14182,7 +14179,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>549</v>
       </c>
@@ -14196,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>493</v>
       </c>
@@ -14219,7 +14216,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>232</v>
       </c>
@@ -14242,7 +14239,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>550</v>
       </c>
@@ -14256,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>551</v>
       </c>
@@ -14270,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>552</v>
       </c>
@@ -14293,12 +14290,12 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>715</v>
       </c>
@@ -14324,7 +14321,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>0</v>
       </c>
@@ -14339,26 +14336,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B8E74-193C-4A62-9827-E7761224CD25}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
@@ -14381,7 +14378,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>801</v>
       </c>
@@ -14407,7 +14404,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -14430,7 +14427,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -14476,7 +14473,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14499,7 +14496,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -14525,7 +14522,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -14548,7 +14545,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -14571,7 +14568,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>486</v>
       </c>
@@ -14594,7 +14591,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -14617,7 +14614,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>722</v>
       </c>
@@ -14640,7 +14637,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
@@ -14663,7 +14660,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -14686,7 +14683,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -14709,7 +14706,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
@@ -14732,7 +14729,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
@@ -14755,7 +14752,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -14778,7 +14775,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
@@ -14801,7 +14798,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>725</v>
       </c>
@@ -14824,7 +14821,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>341</v>
       </c>
@@ -14847,7 +14844,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>727</v>
       </c>
@@ -14870,7 +14867,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>728</v>
       </c>
@@ -14893,7 +14890,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>498</v>
       </c>
@@ -14907,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>500</v>
       </c>
@@ -14921,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>501</v>
       </c>
@@ -14935,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
@@ -14958,7 +14955,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
@@ -14981,7 +14978,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
@@ -15004,7 +15001,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>177</v>
       </c>
@@ -15027,12 +15024,12 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -15040,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>732</v>
       </c>
@@ -15066,7 +15063,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -15089,7 +15086,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
@@ -15112,7 +15109,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -15135,7 +15132,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -15158,7 +15155,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -15181,7 +15178,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -15204,7 +15201,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>486</v>
       </c>
@@ -15230,7 +15227,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -15256,7 +15253,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>334</v>
       </c>
@@ -15279,7 +15276,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
@@ -15302,7 +15299,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
@@ -15325,7 +15322,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
@@ -15348,7 +15345,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -15371,7 +15368,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
@@ -15394,7 +15391,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
@@ -15417,7 +15414,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
@@ -15440,7 +15437,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>725</v>
       </c>
@@ -15463,7 +15460,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>341</v>
       </c>
@@ -15486,7 +15483,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>740</v>
       </c>
@@ -15509,7 +15506,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>728</v>
       </c>
@@ -15532,7 +15529,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>498</v>
       </c>
@@ -15555,7 +15552,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>500</v>
       </c>
@@ -15569,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>510</v>
       </c>
@@ -15583,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
@@ -15597,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>40</v>
       </c>
@@ -15611,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>175</v>
       </c>
@@ -15634,7 +15631,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>177</v>
       </c>
@@ -15657,7 +15654,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
@@ -15665,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>746</v>
       </c>
@@ -15691,7 +15688,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
@@ -15714,7 +15711,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -15737,7 +15734,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -15760,7 +15757,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -15783,7 +15780,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -15806,7 +15803,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
@@ -15829,7 +15826,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>486</v>
       </c>
@@ -15852,7 +15849,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>13</v>
       </c>
@@ -15875,7 +15872,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>334</v>
       </c>
@@ -15898,7 +15895,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>57</v>
       </c>
@@ -15921,7 +15918,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
@@ -15935,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
@@ -15958,7 +15955,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
@@ -15981,7 +15978,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>64</v>
       </c>
@@ -16004,7 +16001,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>66</v>
       </c>
@@ -16027,7 +16024,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
@@ -16050,7 +16047,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>725</v>
       </c>
@@ -16073,7 +16070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>341</v>
       </c>
@@ -16096,7 +16093,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>740</v>
       </c>
@@ -16119,7 +16116,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>728</v>
       </c>
@@ -16142,7 +16139,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>498</v>
       </c>
@@ -16165,7 +16162,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>500</v>
       </c>
@@ -16179,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>510</v>
       </c>
@@ -16202,7 +16199,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>37</v>
       </c>
@@ -16216,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>40</v>
       </c>
@@ -16230,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>175</v>
       </c>
@@ -16244,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>177</v>
       </c>
@@ -16267,7 +16264,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -16275,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>757</v>
       </c>
@@ -16301,7 +16298,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
@@ -16324,7 +16321,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -16347,7 +16344,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
@@ -16370,7 +16367,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
@@ -16393,7 +16390,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
@@ -16416,7 +16413,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>11</v>
       </c>
@@ -16439,7 +16436,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>13</v>
       </c>
@@ -16462,7 +16459,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>759</v>
       </c>
@@ -16485,7 +16482,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>57</v>
       </c>
@@ -16508,7 +16505,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>62</v>
       </c>
@@ -16531,7 +16528,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>62</v>
       </c>
@@ -16554,7 +16551,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>64</v>
       </c>
@@ -16577,7 +16574,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>66</v>
       </c>
@@ -16600,7 +16597,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>68</v>
       </c>
@@ -16623,7 +16620,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>68</v>
       </c>
@@ -16646,7 +16643,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>760</v>
       </c>
@@ -16669,7 +16666,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>761</v>
       </c>
@@ -16692,7 +16689,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>763</v>
       </c>
@@ -16715,7 +16712,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>764</v>
       </c>
@@ -16738,7 +16735,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>498</v>
       </c>
@@ -16761,7 +16758,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>500</v>
       </c>
@@ -16784,7 +16781,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>510</v>
       </c>
@@ -16807,7 +16804,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>37</v>
       </c>
@@ -16821,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>40</v>
       </c>
@@ -16835,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>175</v>
       </c>
@@ -16858,7 +16855,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>177</v>
       </c>
@@ -16881,7 +16878,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
@@ -16889,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>768</v>
       </c>
@@ -16915,7 +16912,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>3</v>
       </c>
@@ -16938,7 +16935,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
@@ -16961,7 +16958,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
@@ -16984,7 +16981,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>8</v>
       </c>
@@ -17007,7 +17004,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
@@ -17030,7 +17027,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>11</v>
       </c>
@@ -17053,7 +17050,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>13</v>
       </c>
@@ -17076,7 +17073,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>759</v>
       </c>
@@ -17099,7 +17096,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>57</v>
       </c>
@@ -17122,7 +17119,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>62</v>
       </c>
@@ -17145,7 +17142,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>64</v>
       </c>
@@ -17168,7 +17165,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>66</v>
       </c>
@@ -17191,7 +17188,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>68</v>
       </c>
@@ -17214,7 +17211,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>760</v>
       </c>
@@ -17237,7 +17234,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>761</v>
       </c>
@@ -17260,7 +17257,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>763</v>
       </c>
@@ -17283,7 +17280,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>764</v>
       </c>
@@ -17306,7 +17303,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>774</v>
       </c>
@@ -17332,7 +17329,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>498</v>
       </c>
@@ -17355,7 +17352,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>500</v>
       </c>
@@ -17378,7 +17375,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>510</v>
       </c>
@@ -17401,7 +17398,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>776</v>
       </c>
@@ -17424,7 +17421,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>778</v>
       </c>
@@ -17441,7 +17438,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>175</v>
       </c>
@@ -17455,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>177</v>
       </c>
@@ -17469,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
@@ -17477,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>780</v>
       </c>
@@ -17503,7 +17500,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>3</v>
       </c>
@@ -17526,7 +17523,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>4</v>
       </c>
@@ -17549,7 +17546,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
@@ -17572,7 +17569,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>8</v>
       </c>
@@ -17595,7 +17592,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -17618,7 +17615,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>11</v>
       </c>
@@ -17641,7 +17638,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>486</v>
       </c>
@@ -17664,7 +17661,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>13</v>
       </c>
@@ -17687,7 +17684,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>783</v>
       </c>
@@ -17701,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>184</v>
       </c>
@@ -17715,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>62</v>
       </c>
@@ -17738,7 +17735,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>64</v>
       </c>
@@ -17761,7 +17758,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>66</v>
       </c>
@@ -17784,7 +17781,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>68</v>
       </c>
@@ -17807,7 +17804,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>784</v>
       </c>
@@ -17830,7 +17827,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>493</v>
       </c>
@@ -17853,7 +17850,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>520</v>
       </c>
@@ -17876,7 +17873,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>786</v>
       </c>
@@ -17899,7 +17896,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>774</v>
       </c>
@@ -17925,7 +17922,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>498</v>
       </c>
@@ -17948,7 +17945,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>500</v>
       </c>
@@ -17971,7 +17968,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>510</v>
       </c>
@@ -17994,7 +17991,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>776</v>
       </c>
@@ -18017,7 +18014,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>778</v>
       </c>
@@ -18034,7 +18031,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
@@ -18048,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
@@ -18062,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>0</v>
       </c>
@@ -18070,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>790</v>
       </c>
@@ -18096,7 +18093,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>3</v>
       </c>
@@ -18119,7 +18116,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>4</v>
       </c>
@@ -18142,7 +18139,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
@@ -18165,7 +18162,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>8</v>
       </c>
@@ -18188,7 +18185,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -18211,7 +18208,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>11</v>
       </c>
@@ -18225,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>13</v>
       </c>
@@ -18239,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>783</v>
       </c>
@@ -18253,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>184</v>
       </c>
@@ -18267,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>62</v>
       </c>
@@ -18290,7 +18287,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>64</v>
       </c>
@@ -18313,7 +18310,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>66</v>
       </c>
@@ -18336,7 +18333,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>68</v>
       </c>
@@ -18359,7 +18356,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>784</v>
       </c>
@@ -18382,7 +18379,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>493</v>
       </c>
@@ -18405,7 +18402,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>520</v>
       </c>
@@ -18428,7 +18425,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>786</v>
       </c>
@@ -18451,7 +18448,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>774</v>
       </c>
@@ -18465,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>498</v>
       </c>
@@ -18491,7 +18488,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>500</v>
       </c>
@@ -18517,7 +18514,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>510</v>
       </c>
@@ -18543,7 +18540,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>776</v>
       </c>
@@ -18557,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>778</v>
       </c>
@@ -18571,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>175</v>
       </c>
@@ -18585,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>177</v>
       </c>
@@ -18599,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>0</v>
       </c>
@@ -18607,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>792</v>
       </c>
@@ -18633,7 +18630,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>3</v>
       </c>
@@ -18656,7 +18653,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
@@ -18679,7 +18676,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>6</v>
       </c>
@@ -18702,7 +18699,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>8</v>
       </c>
@@ -18725,7 +18722,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>10</v>
       </c>
@@ -18739,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>11</v>
       </c>
@@ -18762,7 +18759,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>13</v>
       </c>
@@ -18785,7 +18782,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>62</v>
       </c>
@@ -18799,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>64</v>
       </c>
@@ -18822,7 +18819,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>66</v>
       </c>
@@ -18845,7 +18842,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>68</v>
       </c>
@@ -18868,7 +18865,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>492</v>
       </c>
@@ -18882,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>493</v>
       </c>
@@ -18905,7 +18902,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>527</v>
       </c>
@@ -18928,7 +18925,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>496</v>
       </c>
@@ -18951,7 +18948,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>774</v>
       </c>
@@ -18965,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>498</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>500</v>
       </c>
@@ -19002,7 +18999,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>510</v>
       </c>
@@ -19025,12 +19022,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>953</v>
       </c>
@@ -19047,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>3</v>
       </c>
@@ -19061,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>4</v>
       </c>
@@ -19075,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>6</v>
       </c>
@@ -19089,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>8</v>
       </c>
@@ -19112,7 +19109,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>10</v>
       </c>
@@ -19126,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>13</v>
       </c>
@@ -19140,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>64</v>
       </c>
@@ -19154,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>492</v>
       </c>
@@ -19168,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>493</v>
       </c>
@@ -19182,7 +19179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>527</v>
       </c>
@@ -19205,7 +19202,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>496</v>
       </c>
@@ -19219,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>0</v>
       </c>

--- a/2021_CnC_records.xlsx
+++ b/2021_CnC_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527D3B3-DF0D-421E-A839-956B69F888A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D3025-FED1-458C-8B69-144478820449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
+    <workbookView xWindow="3384" yWindow="1644" windowWidth="17412" windowHeight="10704" xr2:uid="{55F626DB-26DF-4F6A-9259-B6403442FA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1122">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3403,6 +3403,9 @@
   </si>
   <si>
     <t>Skipping this because PenIM35 age-group specific, also listed there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Chalmers </t>
   </si>
 </sst>
 </file>
@@ -4197,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31CADB-781F-4F55-B093-B2ED4E03C3FD}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5141,7 +5144,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>60</v>
+        <v>1121</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1030</v>
